--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>testcase_ID</t>
   </si>
@@ -170,6 +170,27 @@
   </si>
   <si>
     <t>b.tech</t>
+  </si>
+  <si>
+    <t>interview setup</t>
+  </si>
+  <si>
+    <t>Set Name</t>
+  </si>
+  <si>
+    <t>No. of Que</t>
+  </si>
+  <si>
+    <t>SetName2forAddQuebank</t>
+  </si>
+  <si>
+    <t>test_manually</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Test project three</t>
   </si>
 </sst>
 </file>
@@ -541,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -552,7 +573,7 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" customWidth="1"/>
@@ -801,6 +822,31 @@
       </c>
       <c r="J14" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A4:E18"/>
+  <oleSize ref="A9:D23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>testcase_ID</t>
   </si>
@@ -184,13 +184,40 @@
     <t>SetName2forAddQuebank</t>
   </si>
   <si>
-    <t>test_manually</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Test project three</t>
+    <t>Assessment Setup</t>
+  </si>
+  <si>
+    <t>setname1</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>noOfQuestion</t>
+  </si>
+  <si>
+    <t>SetQue 2</t>
+  </si>
+  <si>
+    <t>Select Type</t>
+  </si>
+  <si>
+    <t>test project</t>
+  </si>
+  <si>
+    <t>testing type</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Test project four</t>
+  </si>
+  <si>
+    <t>test_manually1</t>
   </si>
 </sst>
 </file>
@@ -562,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,15 +865,52 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -205,19 +205,19 @@
     <t>Select Type</t>
   </si>
   <si>
-    <t>test project</t>
-  </si>
-  <si>
     <t>testing type</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Test project four</t>
-  </si>
-  <si>
-    <t>test_manually1</t>
+    <t>test_manua</t>
+  </si>
+  <si>
+    <t>Test proj</t>
+  </si>
+  <si>
+    <t>test p</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,7 +873,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1">
@@ -898,19 +898,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>testcase_ID</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>test p</t>
+  </si>
+  <si>
+    <t>Recruiter Email ID</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -911,6 +914,11 @@
       </c>
       <c r="F20" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -211,16 +211,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>test_manua</t>
-  </si>
-  <si>
-    <t>Test proj</t>
-  </si>
-  <si>
-    <t>test p</t>
-  </si>
-  <si>
     <t>Recruiter Email ID</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test_ma</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -876,7 +876,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="2" customFormat="1">
@@ -918,7 +918,7 @@
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14145" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14010" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Shashank" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>testcase_ID</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>test_ma</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
   </si>
 </sst>
 </file>
@@ -594,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,7 +827,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>47</v>

--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14010" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="2220" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Shashank" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>testcase_ID</t>
   </si>
@@ -224,6 +224,24 @@
   </si>
   <si>
     <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mobile no</t>
+  </si>
+  <si>
+    <t>email-id</t>
+  </si>
+  <si>
+    <t>shashank tiwari</t>
+  </si>
+  <si>
+    <t>9930911583</t>
+  </si>
+  <si>
+    <t>shashatwr199@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -595,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -923,6 +941,26 @@
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -930,6 +968,7 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="D23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VDOhire_/ExcelSheet/testdata1.xlsx
+++ b/VDOhire_/ExcelSheet/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="2220" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14220" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Shashank" sheetId="1" r:id="rId1"/>
@@ -238,10 +238,10 @@
     <t>shashank tiwari</t>
   </si>
   <si>
-    <t>9930911583</t>
-  </si>
-  <si>
-    <t>shashatwr199@gmail.com</t>
+    <t>9930911</t>
+  </si>
+  <si>
+    <t>shashwr19@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
